--- a/men_diaries/Diary 11 (Igor).xlsx
+++ b/men_diaries/Diary 11 (Igor).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>[Newcomer's Orientation] Finding a task to start with</t>
   </si>
@@ -163,11 +163,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I am already facing problems with disk space, before starting these tasks, I had 9 GB free, now it is just under 1.1 GB, I don’t know if I will have enough disk space!
-</t>
-  </si>
-  <si>
-    <t>It did not help, the error persisted, I will search about the problem.</t>
+    <t>I am already facing problems with disk space, before starting these tasks, I had 9 GB free, now it is just under 1.1 GB, I don’t know if I will have enough disk space!
+ It did not help, the error persisted, I will search about the problem.</t>
   </si>
   <si>
     <t xml:space="preserve">Well, since yesterday's strategy did not work, what I'm going to do now  is a make clean, to clean what I've compiled so far, and then redo the make, because I realized that I had executed make check instead of make.
@@ -349,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -391,6 +388,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -798,7 +798,7 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B19" s="11"/>
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="11"/>
@@ -831,6 +831,9 @@
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
+      <c r="V20" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
@@ -847,9 +850,6 @@
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="V21" s="12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
@@ -914,6 +914,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
+      <c r="V25" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
@@ -930,9 +933,6 @@
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
-      <c r="V26" s="12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
@@ -997,9 +997,12 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
+      <c r="V30" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="11"/>
@@ -1013,12 +1016,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="V31" s="12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="11"/>
@@ -1032,9 +1032,12 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
+      <c r="V32" s="12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="11"/>
@@ -1048,12 +1051,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="V33" s="12" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B34" s="11"/>
@@ -1069,7 +1069,7 @@
       <c r="L34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B35" s="11"/>
@@ -1085,7 +1085,7 @@
       <c r="L35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="11"/>
@@ -1101,7 +1101,7 @@
       <c r="L36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="11"/>
@@ -1112,12 +1112,14 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="J37" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="11"/>
@@ -1128,14 +1130,12 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="11"/>
@@ -1151,7 +1151,7 @@
       <c r="L39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="11"/>
@@ -1167,7 +1167,7 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B41" s="11"/>
@@ -1183,7 +1183,7 @@
       <c r="L41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="11"/>
@@ -1199,7 +1199,7 @@
       <c r="L42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="11"/>
@@ -1215,7 +1215,7 @@
       <c r="L43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="11"/>
@@ -1231,7 +1231,7 @@
       <c r="L44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="11"/>
@@ -1247,9 +1247,7 @@
       <c r="L45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
-        <v>69</v>
-      </c>
+      <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -14604,20 +14602,6 @@
       <c r="K999" s="11"/>
       <c r="L999" s="11"/>
     </row>
-    <row r="1000">
-      <c r="A1000" s="11"/>
-      <c r="B1000" s="11"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="11"/>
-      <c r="F1000" s="11"/>
-      <c r="G1000" s="11"/>
-      <c r="H1000" s="11"/>
-      <c r="I1000" s="11"/>
-      <c r="J1000" s="11"/>
-      <c r="K1000" s="11"/>
-      <c r="L1000" s="11"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
